--- a/scene_cat_exp_2023.2.2/input_files/2_scenecat_memory_kitchens_2.xlsx
+++ b/scene_cat_exp_2023.2.2/input_files/2_scenecat_memory_kitchens_2.xlsx
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>228</v>
+        <v>122</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -570,7 +570,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>229</v>
+        <v>123</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>230</v>
+        <v>124</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -676,38 +676,38 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_ncr40.png</t>
+          <t>stimuli/img_ua9bs.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>75.66666666666667</v>
+        <v>82</v>
       </c>
       <c r="N4">
-        <v>54.27272727272727</v>
+        <v>62.23333333333333</v>
       </c>
       <c r="O4">
-        <v>64.96969696969697</v>
+        <v>72.11666666666667</v>
       </c>
       <c r="P4">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="V4">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -729,7 +729,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>231</v>
+        <v>125</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>232</v>
+        <v>126</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>233</v>
+        <v>127</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>234</v>
+        <v>128</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>235</v>
+        <v>129</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1134,7 +1134,7 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>236</v>
+        <v>130</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>237</v>
+        <v>131</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1240,38 +1240,38 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_411xa.png</t>
+          <t>stimuli/img_a8wvq.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>51.03030303030303</v>
+        <v>86.25925925925925</v>
       </c>
       <c r="N11">
-        <v>28.93939393939394</v>
+        <v>66.25925925925925</v>
       </c>
       <c r="O11">
-        <v>39.98484848484848</v>
+        <v>76.25925925925925</v>
       </c>
       <c r="P11">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1293,7 +1293,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>238</v>
+        <v>132</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1317,38 +1317,38 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_xesl0.png</t>
+          <t>stimuli/img_c0me7.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>69.28571428571429</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="N12">
-        <v>47.35714285714285</v>
+        <v>45.62857142857143</v>
       </c>
       <c r="O12">
-        <v>58.32142857142857</v>
+        <v>57.01428571428572</v>
       </c>
       <c r="P12">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1370,7 +1370,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>239</v>
+        <v>133</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1394,38 +1394,38 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_j5rpx.png</t>
+          <t>stimuli/img_ifebc.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>72.24242424242425</v>
+        <v>84</v>
       </c>
       <c r="N13">
-        <v>50</v>
+        <v>65.88235294117646</v>
       </c>
       <c r="O13">
-        <v>61.12121212121212</v>
+        <v>74.94117647058823</v>
       </c>
       <c r="P13">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R13">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S13">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T13">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="U13">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="V13">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>240</v>
+        <v>134</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1471,38 +1471,38 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_bwo9g.png</t>
+          <t>stimuli/img_xesl0.png</t>
         </is>
       </c>
       <c r="M14">
-        <v>64.81818181818181</v>
+        <v>69.28571428571429</v>
       </c>
       <c r="N14">
-        <v>42.36363636363637</v>
+        <v>47.35714285714285</v>
       </c>
       <c r="O14">
-        <v>53.59090909090909</v>
+        <v>58.32142857142857</v>
       </c>
       <c r="P14">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V14">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1524,7 +1524,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>241</v>
+        <v>135</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>242</v>
+        <v>136</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1630,38 +1630,38 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_c0me7.png</t>
+          <t>stimuli/img_uwv6y.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>68.40000000000001</v>
+        <v>78.88888888888889</v>
       </c>
       <c r="N16">
-        <v>45.62857142857143</v>
+        <v>59.30555555555556</v>
       </c>
       <c r="O16">
-        <v>57.01428571428572</v>
+        <v>69.09722222222223</v>
       </c>
       <c r="P16">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R16">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S16">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T16">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U16">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V16">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1683,7 +1683,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>243</v>
+        <v>137</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1707,38 +1707,38 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_s9are.png</t>
+          <t>stimuli/img_uy1n4.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>90.14285714285714</v>
+        <v>76.30555555555556</v>
       </c>
       <c r="N17">
-        <v>75.22857142857143</v>
+        <v>55.33333333333334</v>
       </c>
       <c r="O17">
-        <v>82.68571428571428</v>
+        <v>65.81944444444444</v>
       </c>
       <c r="P17">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R17">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S17">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T17">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U17">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="V17">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1760,7 +1760,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>244</v>
+        <v>138</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>245</v>
+        <v>139</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>246</v>
+        <v>140</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>247</v>
+        <v>141</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1990,38 +1990,38 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_a8wvq.png</t>
+          <t>stimuli/img_jz3kd.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>86.25925925925925</v>
+        <v>72.79411764705883</v>
       </c>
       <c r="N21">
-        <v>66.25925925925925</v>
+        <v>51.64705882352941</v>
       </c>
       <c r="O21">
-        <v>76.25925925925925</v>
+        <v>62.22058823529412</v>
       </c>
       <c r="P21">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R21">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S21">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T21">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U21">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="V21">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -2043,7 +2043,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>248</v>
+        <v>142</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>249</v>
+        <v>143</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>250</v>
+        <v>144</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>251</v>
+        <v>145</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>252</v>
+        <v>146</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2390,38 +2390,38 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_uwv6y.png</t>
+          <t>stimuli/img_bwo9g.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>78.88888888888889</v>
+        <v>64.81818181818181</v>
       </c>
       <c r="N26">
-        <v>59.30555555555556</v>
+        <v>42.36363636363637</v>
       </c>
       <c r="O26">
-        <v>69.09722222222223</v>
+        <v>53.59090909090909</v>
       </c>
       <c r="P26">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V26">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -2443,7 +2443,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>253</v>
+        <v>147</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>27</v>
       </c>
       <c r="F28">
-        <v>254</v>
+        <v>148</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>28</v>
       </c>
       <c r="F29">
-        <v>255</v>
+        <v>149</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>29</v>
       </c>
       <c r="F30">
-        <v>256</v>
+        <v>150</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2713,20 +2713,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>stimuli/img_jz3kd.png</t>
+          <t>stimuli/img_ncr40.png</t>
         </is>
       </c>
       <c r="M30">
-        <v>72.79411764705883</v>
+        <v>75.66666666666667</v>
       </c>
       <c r="N30">
-        <v>51.64705882352941</v>
+        <v>54.27272727272727</v>
       </c>
       <c r="O30">
-        <v>62.22058823529412</v>
+        <v>64.96969696969697</v>
       </c>
       <c r="P30">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -2766,7 +2766,7 @@
         <v>30</v>
       </c>
       <c r="F31">
-        <v>257</v>
+        <v>151</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>31</v>
       </c>
       <c r="F32">
-        <v>258</v>
+        <v>152</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2867,38 +2867,38 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>stimuli/img_xti0z.png</t>
+          <t>stimuli/img_c79r7.png</t>
         </is>
       </c>
       <c r="M32">
-        <v>81.40625</v>
+        <v>56.26470588235294</v>
       </c>
       <c r="N32">
-        <v>61.4375</v>
+        <v>34.26470588235294</v>
       </c>
       <c r="O32">
-        <v>71.421875</v>
+        <v>45.26470588235294</v>
       </c>
       <c r="P32">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q32">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R32">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S32">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T32">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="U32">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V32">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -2920,7 +2920,7 @@
         <v>32</v>
       </c>
       <c r="F33">
-        <v>259</v>
+        <v>153</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>33</v>
       </c>
       <c r="F34">
-        <v>260</v>
+        <v>154</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>34</v>
       </c>
       <c r="F35">
-        <v>261</v>
+        <v>155</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>35</v>
       </c>
       <c r="F36">
-        <v>262</v>
+        <v>156</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -3190,38 +3190,38 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>stimuli/img_ua9bs.png</t>
+          <t>stimuli/img_05flq.png</t>
         </is>
       </c>
       <c r="M36">
-        <v>82</v>
+        <v>47.10344827586207</v>
       </c>
       <c r="N36">
-        <v>62.23333333333333</v>
+        <v>25.72413793103448</v>
       </c>
       <c r="O36">
-        <v>72.11666666666667</v>
+        <v>36.41379310344828</v>
       </c>
       <c r="P36">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q36">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R36">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S36">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="T36">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="U36">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="V36">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -3243,7 +3243,7 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <v>263</v>
+        <v>157</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -3267,38 +3267,38 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>stimuli/img_ifebc.png</t>
+          <t>stimuli/img_j5rpx.png</t>
         </is>
       </c>
       <c r="M37">
-        <v>84</v>
+        <v>72.24242424242425</v>
       </c>
       <c r="N37">
-        <v>65.88235294117646</v>
+        <v>50</v>
       </c>
       <c r="O37">
-        <v>74.94117647058823</v>
+        <v>61.12121212121212</v>
       </c>
       <c r="P37">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q37">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R37">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S37">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T37">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U37">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="V37">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -3320,7 +3320,7 @@
         <v>37</v>
       </c>
       <c r="F38">
-        <v>264</v>
+        <v>158</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -3344,38 +3344,38 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>stimuli/img_c79r7.png</t>
+          <t>stimuli/img_7pgd2.png</t>
         </is>
       </c>
       <c r="M38">
-        <v>56.26470588235294</v>
+        <v>78.59375</v>
       </c>
       <c r="N38">
-        <v>34.26470588235294</v>
+        <v>57.84375</v>
       </c>
       <c r="O38">
-        <v>45.26470588235294</v>
+        <v>68.21875</v>
       </c>
       <c r="P38">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q38">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S38">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T38">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U38">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="V38">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -3397,7 +3397,7 @@
         <v>38</v>
       </c>
       <c r="F39">
-        <v>265</v>
+        <v>159</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -3421,17 +3421,17 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>stimuli/img_7pgd2.png</t>
+          <t>stimuli/img_xti0z.png</t>
         </is>
       </c>
       <c r="M39">
-        <v>78.59375</v>
+        <v>81.40625</v>
       </c>
       <c r="N39">
-        <v>57.84375</v>
+        <v>61.4375</v>
       </c>
       <c r="O39">
-        <v>68.21875</v>
+        <v>71.421875</v>
       </c>
       <c r="P39">
         <v>32</v>
@@ -3440,19 +3440,19 @@
         <v>8</v>
       </c>
       <c r="R39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V39">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -3474,7 +3474,7 @@
         <v>39</v>
       </c>
       <c r="F40">
-        <v>266</v>
+        <v>160</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>267</v>
+        <v>161</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -3580,38 +3580,38 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>stimuli/img_uy1n4.png</t>
+          <t>stimuli/img_s9are.png</t>
         </is>
       </c>
       <c r="M41">
-        <v>76.30555555555556</v>
+        <v>90.14285714285714</v>
       </c>
       <c r="N41">
-        <v>55.33333333333334</v>
+        <v>75.22857142857143</v>
       </c>
       <c r="O41">
-        <v>65.81944444444444</v>
+        <v>82.68571428571428</v>
       </c>
       <c r="P41">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q41">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R41">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S41">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T41">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="U41">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="V41">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -3633,7 +3633,7 @@
         <v>41</v>
       </c>
       <c r="F42">
-        <v>268</v>
+        <v>162</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -3657,38 +3657,38 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>stimuli/img_05flq.png</t>
+          <t>stimuli/img_411xa.png</t>
         </is>
       </c>
       <c r="M42">
-        <v>47.10344827586207</v>
+        <v>51.03030303030303</v>
       </c>
       <c r="N42">
-        <v>25.72413793103448</v>
+        <v>28.93939393939394</v>
       </c>
       <c r="O42">
-        <v>36.41379310344828</v>
+        <v>39.98484848484848</v>
       </c>
       <c r="P42">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/scene_cat_exp_2023.2.2/input_files/2_scenecat_memory_kitchens_2.xlsx
+++ b/scene_cat_exp_2023.2.2/input_files/2_scenecat_memory_kitchens_2.xlsx
@@ -1861,7 +1861,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/catch_12_supermarket.jpg</t>
+          <t>stimuli/catch_27.jpg</t>
         </is>
       </c>
     </row>
